--- a/mobi_client/mobi_client/mobi_config/no_limit_state_excel/大地图动画表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/no_limit_state_excel/大地图动画表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E380D2-0678-4D5C-AE31-BECD2585EEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C5032C-42B8-4818-9F75-EF2C585486D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25680" yWindow="0" windowWidth="13500" windowHeight="20835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28020" yWindow="780" windowWidth="13500" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MapAnim" sheetId="1" r:id="rId1"/>

--- a/mobi_client/mobi_client/mobi_config/no_limit_state_excel/大地图动画表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/no_limit_state_excel/大地图动画表.xlsx
@@ -1,51 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C5032C-42B8-4818-9F75-EF2C585486D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28020" yWindow="780" windowWidth="13500" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="MapAnim" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>PB</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">1 播放avg
@@ -55,11 +35,12 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>2 聚焦区域
-3 显示区域icon</t>
+          <t xml:space="preserve">2 聚焦区域
+3 显示区域icon
+4.拉远镜头
+</t>
         </r>
       </text>
     </comment>
@@ -68,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
@@ -124,12 +105,24 @@
     <t>4</t>
   </si>
   <si>
-    <t>0.05;0.8</t>
+    <t>0.02;0.9</t>
   </si>
   <si>
     <t>看向整个大地图</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>常驻场景出现</t>
+  </si>
+  <si>
+    <t>看向昭离公馆</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -143,28 +136,19 @@
   </si>
   <si>
     <t>镜头拉回</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>test_3Dmap.泉舜公寓1</t>
-  </si>
-  <si>
-    <t>test_3Dmap.天目剧院1</t>
-  </si>
-  <si>
-    <t>test_3Dmap.整个地图1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,7 +161,6 @@
       <sz val="10"/>
       <color indexed="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -185,45 +168,170 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,7 +340,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="2" tint="-0.1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,24 +358,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39863277077547532"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.7993408001953185"/>
+        <fgColor theme="3" tint="0.398663289284951"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799340800195319"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -290,12 +578,254 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -306,28 +836,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -337,18 +867,62 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -635,20 +1209,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="17.75" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
@@ -658,7 +1231,7 @@
     <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -681,7 +1254,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -704,7 +1277,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="8" t="s">
         <v>14</v>
       </c>
@@ -727,16 +1300,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="10">
-        <f>ROW()-3</f>
+        <f t="shared" ref="A4:A8" si="0">ROW()-3</f>
         <v>1</v>
       </c>
       <c r="B4" s="10">
         <v>1</v>
       </c>
       <c r="C4" s="10">
-        <v>1201</v>
+        <v>1010001</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>17</v>
@@ -745,61 +1318,61 @@
         <v>18</v>
       </c>
       <c r="F4" s="10">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" s="1" customFormat="1" spans="1:7">
       <c r="A5" s="10">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B5" s="10">
         <v>1</v>
       </c>
       <c r="C5" s="10">
-        <v>1201</v>
+        <v>1010001</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="10">
+        <v>5001</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" customFormat="1" spans="1:7">
       <c r="A6" s="10">
-        <f t="shared" ref="A6:A19" si="0">ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B6" s="10">
         <v>1</v>
       </c>
       <c r="C6" s="10">
-        <v>1201</v>
+        <v>1010001</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="E6" s="10">
+        <v>5002</v>
       </c>
       <c r="F6" s="10">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" s="1" customFormat="1" spans="1:7">
       <c r="A7" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -808,20 +1381,22 @@
         <v>1</v>
       </c>
       <c r="C7" s="10">
-        <v>1201</v>
+        <v>1010001</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7" s="10">
-        <v>1001</v>
+        <v>5003</v>
       </c>
       <c r="F7" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="G7" s="10"/>
+        <v>0.2</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" s="1" customFormat="1" spans="1:7">
       <c r="A8" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -830,268 +1405,141 @@
         <v>1</v>
       </c>
       <c r="C8" s="10">
-        <v>1201</v>
+        <v>1010001</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8" s="10">
-        <v>1001</v>
+        <v>20</v>
       </c>
       <c r="F8" s="10">
-        <v>2</v>
-      </c>
-      <c r="G8" s="10"/>
+        <v>0.2</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" customFormat="1" spans="1:7">
       <c r="A9" s="10">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>6</v>
       </c>
       <c r="B9" s="10">
         <v>1</v>
       </c>
       <c r="C9" s="10">
-        <v>1201</v>
+        <v>1010001</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="E9" s="10">
+        <v>1</v>
       </c>
       <c r="F9" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="G9" s="10"/>
+        <v>0.1</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10" s="10">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>7</v>
       </c>
       <c r="B10" s="10">
         <v>1</v>
       </c>
       <c r="C10" s="10">
-        <v>1201</v>
+        <v>1010001</v>
       </c>
       <c r="D10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="10">
-        <v>2002</v>
-      </c>
       <c r="F10" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="G10" s="10"/>
+        <v>0.1</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11" s="10">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>8</v>
       </c>
       <c r="B11" s="10">
         <v>1</v>
       </c>
       <c r="C11" s="10">
-        <v>1201</v>
+        <v>1010001</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E11" s="10">
-        <v>2002</v>
+        <v>1001</v>
       </c>
       <c r="F11" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="10"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" s="10">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>9</v>
       </c>
       <c r="B12" s="10">
         <v>1</v>
       </c>
       <c r="C12" s="10">
-        <v>1201</v>
+        <v>1010001</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13" s="10">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>10</v>
       </c>
       <c r="B13" s="10">
         <v>1</v>
       </c>
       <c r="C13" s="10">
-        <v>1201</v>
+        <v>1010001</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E13" s="10">
-        <v>3001</v>
+        <v>1001</v>
       </c>
       <c r="F13" s="10">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="10">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B14" s="10">
-        <v>1</v>
-      </c>
-      <c r="C14" s="10">
-        <v>1201</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="10">
-        <v>3001</v>
-      </c>
-      <c r="F14" s="10">
-        <v>2</v>
-      </c>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="10">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B15" s="10">
-        <v>1</v>
-      </c>
-      <c r="C15" s="10">
-        <v>1201</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="10">
-        <v>3101</v>
-      </c>
-      <c r="F15" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="10">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B16" s="10">
-        <v>1</v>
-      </c>
-      <c r="C16" s="10">
-        <v>1201</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="10">
-        <v>3002</v>
-      </c>
-      <c r="F16" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="10">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B17" s="10">
-        <v>1</v>
-      </c>
-      <c r="C17" s="10">
-        <v>1201</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="10">
-        <v>3101</v>
-      </c>
-      <c r="F17" s="10">
-        <v>2</v>
-      </c>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="10">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B18" s="10">
-        <v>1</v>
-      </c>
-      <c r="C18" s="10">
-        <v>1201</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="G18" s="10"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="10">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B19" s="10">
-        <v>1</v>
-      </c>
-      <c r="C19" s="10">
-        <v>1201</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="10">
-        <v>1001</v>
-      </c>
-      <c r="F19" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="G19" s="10"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <ignoredErrors>
-    <ignoredError sqref="D4:D19" numberStoredAsText="1"/>
-  </ignoredErrors>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>